--- a/video_links.xlsx
+++ b/video_links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tattle\sentiment_analysis\scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tattle\sentiment_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC14A1-DADD-4DFA-BD6E-27C1E3997998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8014B-B646-4EA7-8BE2-6851D9E17B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>Video Link</t>
   </si>
@@ -802,6 +802,39 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AxGRuCTxmkM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gu_bu4D5x-8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XEmoenu_woE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XBGZTFv6FFU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PqZb0JPruCo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wmRYKm5UfdA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0gXzV5jv_sg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/ALNKiOE1fJw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uwChxQOO3EM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iwnmBBH0w4w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zP1JZBn32dI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F9Oqgvy2cZk</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,6 +2258,61 @@
       </c>
       <c r="B130" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/video_links.xlsx
+++ b/video_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tattle\sentiment_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8014B-B646-4EA7-8BE2-6851D9E17B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350A9D1-147E-4848-8CF5-74EA7D220CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>Video Link</t>
   </si>
@@ -819,9 +819,6 @@
     <t>https://www.youtube.com/watch?v=wmRYKm5UfdA</t>
   </si>
   <si>
-    <t>https://youtu.be/0gXzV5jv_sg</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/shorts/ALNKiOE1fJw</t>
   </si>
   <si>
@@ -835,6 +832,36 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=F9Oqgvy2cZk</t>
+  </si>
+  <si>
+    <t>gu_bu4D5x-8</t>
+  </si>
+  <si>
+    <t>XEmoenu_woE</t>
+  </si>
+  <si>
+    <t>XBGZTFv6FFU</t>
+  </si>
+  <si>
+    <t>PqZb0JPruCo</t>
+  </si>
+  <si>
+    <t>wmRYKm5UfdA</t>
+  </si>
+  <si>
+    <t>uwChxQOO3EM</t>
+  </si>
+  <si>
+    <t>iwnmBBH0w4w</t>
+  </si>
+  <si>
+    <t>zP1JZBn32dI</t>
+  </si>
+  <si>
+    <t>F9Oqgvy2cZk</t>
+  </si>
+  <si>
+    <t>ALNKiOE1fJw</t>
   </si>
 </sst>
 </file>
@@ -910,7 +937,47 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1207,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131:B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2323,7 @@
       <c r="A130" t="s">
         <v>258</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2264,63 +2331,91 @@
       <c r="A131" t="s">
         <v>259</v>
       </c>
+      <c r="B131" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>260</v>
       </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>261</v>
       </c>
+      <c r="B133" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>262</v>
       </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>263</v>
       </c>
+      <c r="B135" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>264</v>
       </c>
+      <c r="B136" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>265</v>
       </c>
+      <c r="B137" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>266</v>
       </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>267</v>
       </c>
+      <c r="B139" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>269</v>
+      <c r="B140" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B129">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B131">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B140">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A45" r:id="rId1" xr:uid="{574ADF24-33C2-4037-BDF9-4459766E0A30}"/>

--- a/video_links.xlsx
+++ b/video_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tattle\sentiment_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350A9D1-147E-4848-8CF5-74EA7D220CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041230D-BCAD-41D2-A2A3-16B9D8B173E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,7 +937,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -945,36 +945,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1276,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131:B140"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2331,7 +2301,7 @@
       <c r="A131" t="s">
         <v>259</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2339,7 +2309,7 @@
       <c r="A132" t="s">
         <v>260</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2347,7 +2317,7 @@
       <c r="A133" t="s">
         <v>261</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2355,7 +2325,7 @@
       <c r="A134" t="s">
         <v>262</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2363,7 +2333,7 @@
       <c r="A135" t="s">
         <v>263</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2371,7 +2341,7 @@
       <c r="A136" t="s">
         <v>264</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2379,7 +2349,7 @@
       <c r="A137" t="s">
         <v>265</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2387,7 +2357,7 @@
       <c r="A138" t="s">
         <v>266</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2395,7 +2365,7 @@
       <c r="A139" t="s">
         <v>267</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2403,16 +2373,16 @@
       <c r="A140" t="s">
         <v>268</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>277</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B129">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B131">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B140">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>

--- a/video_links.xlsx
+++ b/video_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tattle\sentiment_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041230D-BCAD-41D2-A2A3-16B9D8B173E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA6665-3C12-4AB5-B5C5-CE4C097A843F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
     <t>Video Link</t>
   </si>
@@ -862,6 +862,198 @@
   </si>
   <si>
     <t>ALNKiOE1fJw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hS_0CdEMNNA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D7w52B34k6I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_q1qTFns9Pg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/SBaYUG40Yhg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZBEGs8tLBEc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IeiJE1_ja2Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RAvUOUiVVZQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/qi2r8YsmYEk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eZojkfzuMJ4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S4BRvZmtEdw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EzPuSQF57B4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gGmW_E9Yz2g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rKLNL-HPFME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/Q_ZaHWO6MzA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AYR-_nBsR8Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FBjNdiMkK0Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EVK5VYDppno</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H6c987Js8DQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W0OZBdNm-BE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G83QMjOomCk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_YAWpCBdG7s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qxaEM_JyztQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LWuVElcOovo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xfBaJQljAoM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-YqKwegEksw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/9Why_wwR3R0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_dDGWtjNkbQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EOOMmKeRk0w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KBsDYxc8YXc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KPWUUrraVjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2CdsnmYnusQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7n2eYh1alPU</t>
+  </si>
+  <si>
+    <t>hS_0CdEMNNA</t>
+  </si>
+  <si>
+    <t>D7w52B34k6I</t>
+  </si>
+  <si>
+    <t>_q1qTFns9Pg</t>
+  </si>
+  <si>
+    <t>SBaYUG40Yhg</t>
+  </si>
+  <si>
+    <t>ZBEGs8tLBEc</t>
+  </si>
+  <si>
+    <t>IeiJE1_ja2Y</t>
+  </si>
+  <si>
+    <t>RAvUOUiVVZQ</t>
+  </si>
+  <si>
+    <t>qi2r8YsmYEk</t>
+  </si>
+  <si>
+    <t>eZojkfzuMJ4</t>
+  </si>
+  <si>
+    <t>S4BRvZmtEdw</t>
+  </si>
+  <si>
+    <t>EzPuSQF57B4</t>
+  </si>
+  <si>
+    <t>gGmW_E9Yz2g</t>
+  </si>
+  <si>
+    <t>rKLNL-HPFME</t>
+  </si>
+  <si>
+    <t>Q_ZaHWO6MzA</t>
+  </si>
+  <si>
+    <t>AYR-_nBsR8Q</t>
+  </si>
+  <si>
+    <t>FBjNdiMkK0Q</t>
+  </si>
+  <si>
+    <t>EVK5VYDppno</t>
+  </si>
+  <si>
+    <t>H6c987Js8DQ</t>
+  </si>
+  <si>
+    <t>W0OZBdNm-BE</t>
+  </si>
+  <si>
+    <t>G83QMjOomCk</t>
+  </si>
+  <si>
+    <t>_YAWpCBdG7s</t>
+  </si>
+  <si>
+    <t>qxaEM_JyztQ</t>
+  </si>
+  <si>
+    <t>LWuVElcOovo</t>
+  </si>
+  <si>
+    <t>xfBaJQljAoM</t>
+  </si>
+  <si>
+    <t>-YqKwegEksw</t>
+  </si>
+  <si>
+    <t>9Why_wwR3R0</t>
+  </si>
+  <si>
+    <t>_dDGWtjNkbQ</t>
+  </si>
+  <si>
+    <t>EOOMmKeRk0w</t>
+  </si>
+  <si>
+    <t>KBsDYxc8YXc</t>
+  </si>
+  <si>
+    <t>KPWUUrraVjc</t>
+  </si>
+  <si>
+    <t>2CdsnmYnusQ</t>
+  </si>
+  <si>
+    <t>7n2eYh1alPU</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1129,47 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1244,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2377,15 +2609,274 @@
         <v>277</v>
       </c>
     </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>285</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>286</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>290</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>292</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>294</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>296</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>298</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>299</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>300</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>301</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>302</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>303</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>304</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>305</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>306</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>307</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>308</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>310</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B129">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B131">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B131">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B2:B140">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B140">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B2:B172">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A45" r:id="rId1" xr:uid="{574ADF24-33C2-4037-BDF9-4459766E0A30}"/>
